--- a/public/uploads/users.xlsx
+++ b/public/uploads/users.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/291ffb0168b1a007/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="8_{36FDF5AD-2668-4B95-9840-B7A6A1943012}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EB0C80D4-D78A-4F82-A0D0-34F41635C8DC}"/>
+  <xr:revisionPtr revIDLastSave="5" documentId="8_{36FDF5AD-2668-4B95-9840-B7A6A1943012}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{ED086497-1A0F-4B64-9F0F-3CEC5E756044}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{09BD445E-7602-4875-8259-46C9344BACDC}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>name</t>
   </si>
@@ -63,6 +63,15 @@
   </si>
   <si>
     <t>nenu@gmail.com</t>
+  </si>
+  <si>
+    <t>sanjusaji</t>
+  </si>
+  <si>
+    <t>harshitjain</t>
+  </si>
+  <si>
+    <t>nenunenu</t>
   </si>
 </sst>
 </file>
@@ -126,6 +135,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -440,7 +453,7 @@
   <dimension ref="A1:C20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -469,7 +482,7 @@
         <v>5</v>
       </c>
       <c r="C2" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
@@ -480,7 +493,7 @@
         <v>7</v>
       </c>
       <c r="C3" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
@@ -491,7 +504,7 @@
         <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
